--- a/functionality check.xlsx
+++ b/functionality check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25D852B-B6CA-4AC7-BBD9-60F1DCD2CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57951271-EBCB-46CD-9BC0-BFA464445BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="1110" windowWidth="11320" windowHeight="11240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="2050" windowWidth="11320" windowHeight="11240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V89" sqref="V89"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF7" sqref="BF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP3:AP9" si="5">O4+O5</f>
+        <f t="shared" ref="AP4:AP8" si="5">O4+O5</f>
         <v>14</v>
       </c>
       <c r="AQ4">
@@ -1607,7 +1607,7 @@
         <v>0F</v>
       </c>
       <c r="AH13" t="str">
-        <f t="shared" ref="AH13:AW13" si="42">DEC2HEX(AH2,2)</f>
+        <f t="shared" ref="AH13:AM13" si="42">DEC2HEX(AH2,2)</f>
         <v>07</v>
       </c>
       <c r="AI13" t="str">
@@ -3271,7 +3271,7 @@
         <v>ED</v>
       </c>
       <c r="X28">
-        <f t="shared" ref="X25:X28" si="112">MAX(O6:O9)</f>
+        <f t="shared" ref="X28" si="112">MAX(O6:O9)</f>
         <v>-6</v>
       </c>
       <c r="Y28">
